--- a/biology/Microbiologie/Sphingobacterium/Sphingobacterium.xlsx
+++ b/biology/Microbiologie/Sphingobacterium/Sphingobacterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sphingobacterium est un genre de bactéries de la famille des Sphingobacteriaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Sphingobacterium a été créé en 1983 par la microbiologiste japonaise Eiko Yabuuchi (d)[1] et son équipe (Takichi Kaneko, Ikuya Yano, C. Wayne Moss et Noriko Miyoshi)[2] avec comme espèce type Sphingobacterium spiritivorum[2]. Ce genre comprend un certain nombre d'espèce qui étaient classées parmi les Flavobacterium[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Sphingobacterium a été créé en 1983 par la microbiologiste japonaise Eiko Yabuuchi (d) et son équipe (Takichi Kaneko, Ikuya Yano, C. Wayne Moss et Noriko Miyoshi) avec comme espèce type Sphingobacterium spiritivorum. Ce genre comprend un certain nombre d'espèce qui étaient classées parmi les Flavobacterium.
 </t>
         </is>
       </c>
@@ -544,10 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Étymologie
-L'étymologie du genre Sphingobacterium est la suivante : Sphin.go.bac.te.ri.um. N.L. neut. n. sphingosinum, sphingosine; du Gr. fem. n. sphinx (gen. sphingos), du sphinx; de Chem. fem. suff. -ine; N.L. pref. sphingo-, se rapportant à la sphingosine; N.L. neut. n. bacterium, un bâtonnet et en biologie, une bactérie; N.L. neut. n. Sphingobacterium, une bactérie contenant de la sphingosine[4].
-Liste d'espèces
-Selon LPSN  (18 février 2023)[5] :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du genre Sphingobacterium est la suivante : Sphin.go.bac.te.ri.um. N.L. neut. n. sphingosinum, sphingosine; du Gr. fem. n. sphinx (gen. sphingos), du sphinx; de Chem. fem. suff. -ine; N.L. pref. sphingo-, se rapportant à la sphingosine; N.L. neut. n. bacterium, un bâtonnet et en biologie, une bactérie; N.L. neut. n. Sphingobacterium, une bactérie contenant de la sphingosine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sphingobacterium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphingobacterium</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (18 février 2023) :
 Sphingobacterium alimentarium Schmidt et al. 2012
 Sphingobacterium alkalisoli Xu et al. 2017
 Sphingobacterium anhuiense Wei et al. 2008
@@ -616,9 +670,44 @@
 Sphingobacterium wenxiniae Zhang et al. 2012
 Sphingobacterium yanglingense Peng et al. 2014
 Sphingobacterium zeae Kämpfer et al. 2016
-Espèces non valides
-Selon LPSN  (18 février 2023)[5], les espèces suivantes n'ont pas été publiées de manière valide :
-Candidatus comitans Jacobi et al. 1996. Cet genre a été publié mais de manière non valide et sans proposer formellement le nom d'espèce Sphingobacterim comitans[6]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sphingobacterium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphingobacterium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces non valides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (18 février 2023), les espèces suivantes n'ont pas été publiées de manière valide :
+Candidatus comitans Jacobi et al. 1996. Cet genre a été publié mais de manière non valide et sans proposer formellement le nom d'espèce Sphingobacterim comitans
 Sphingobacterium deserti Teng et al., 2015
 Sphingobacterium paramultivorum Wang et al., 2021
 Sphingobacterium paucimobilis White &amp; Suttle 2013
@@ -626,44 +715,114 @@
 Candidatus Sphingobacterium stercorigallinarum Gilroy et al. 2021
 Candidatus Sphingobacterium stercoripullorum Gilroy et al. 2021
 Sphingobacterium versatilis Yabuuchi et al. 1981
-Sphingobacterium yamdrokense Xiao et al. 2015
-Anciennes espèces
-Selon LPSN  (18 février 2023)[5], les espèces suivantes ne font plus partie du genre Sophingobacterium :
-Sphingobacterium antarcticus Shivaji et al. 1992 contenant une erreur de latinisation du nom a été renommée Sphingobacterium antarcticum corrig. Shivaji et al. 1992 puis est devenue l'espèce Pedobacter antarcticus (Shivaji et al. 1992) Farfán et al. 2014[7].
+Sphingobacterium yamdrokense Xiao et al. 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sphingobacterium</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphingobacterium</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Anciennes espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (18 février 2023), les espèces suivantes ne font plus partie du genre Sophingobacterium :
+Sphingobacterium antarcticus Shivaji et al. 1992 contenant une erreur de latinisation du nom a été renommée Sphingobacterium antarcticum corrig. Shivaji et al. 1992 puis est devenue l'espèce Pedobacter antarcticus (Shivaji et al. 1992) Farfán et al. 2014.
 Sphingobacterium heparinum (Payza and Korn 1956) Takeuchi and Yokota 1993 est devenue l'espèce Pedobacter heparinus (Payza and Korn 1956) Steyn et al. 1998.
-Sphingobacterium piscium Takeuchi and Yokota 1993 a été renommée Pedobacter antarcticus.
-Noms corrigés
-Sphingobacterium antarcticus Shivaji et al. 1992 contenant une erreur de latinisation du nom a été renommée Sphingobacterium antarcticum
+Sphingobacterium piscium Takeuchi and Yokota 1993 a été renommée Pedobacter antarcticus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sphingobacterium</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sphingobacterium</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Noms corrigés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sphingobacterium antarcticus Shivaji et al. 1992 contenant une erreur de latinisation du nom a été renommée Sphingobacterium antarcticum
 L'espèce Sphingobacterium mizutae Yabuuchi et al. 1983 a vu son nom corrigé en Sphingobacterium mizutaii corrig. Yabuuchi et al. 1983.
 L'espèce Sphingobacterium pakistanensis Ahmed et al. 2014 publiée de manière non valide et comportant un nom avec erreur a été renommée et publiée de manière valide sous le nom de Sphingobacterium pakistanense.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Sphingobacterium</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sphingobacterium</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) Eiko Yabuuchi, Takichi Kaneko, Ikuya Yano, C. Wayne Moss et Noriko Miyoshi, « Sphingobacterium gen. nov., Sphingobacterium spiritivorum comb. nov., Sphingobacterium multivorum comb. nov., Sphingobacterium mizutae sp. nov., and Flavobacterium indologenes sp. nov.: Glucose-Nonfermenting Gram-Negative Rods in CDC Groups IIK-2 and IIb », International Journal of Systematic Bacteriology, vol. 33, no 3,‎ 1er juillet 1983, p. 580–598 (ISSN 0020-7713, 1465-2102 et 1070-6259, DOI 10.1099/00207713-33-3-580, lire en ligne)</t>
         </is>
